--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H2">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I2">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J2">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>0.175179185136</v>
+        <v>0.34902122118375</v>
       </c>
       <c r="R2">
-        <v>0.700716740544</v>
+        <v>1.396084884735</v>
       </c>
       <c r="S2">
-        <v>0.0002112788191608922</v>
+        <v>0.0002141119410648234</v>
       </c>
       <c r="T2">
-        <v>0.0001054561682733008</v>
+        <v>0.0001132899466269871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H3">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I3">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J3">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
-        <v>0.006414675901999999</v>
+        <v>0.01766341302166667</v>
       </c>
       <c r="R3">
-        <v>0.03848805541199999</v>
+        <v>0.10598047813</v>
       </c>
       <c r="S3">
-        <v>7.736564985287596E-06</v>
+        <v>1.083586732941845E-05</v>
       </c>
       <c r="T3">
-        <v>5.792358899387726E-06</v>
+        <v>8.600138030381523E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H4">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I4">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J4">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>58.936769244299</v>
+        <v>208.7975510386584</v>
       </c>
       <c r="R4">
-        <v>353.620615465794</v>
+        <v>1252.78530623195</v>
       </c>
       <c r="S4">
-        <v>0.07108202382278653</v>
+        <v>0.1280897728534741</v>
       </c>
       <c r="T4">
-        <v>0.05321904411833778</v>
+        <v>0.1016614261997627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.3019075</v>
+      </c>
+      <c r="H5">
+        <v>2.603815</v>
+      </c>
+      <c r="I5">
+        <v>0.3683937142813216</v>
+      </c>
+      <c r="J5">
+        <v>0.2921984648839798</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <v>0.472803</v>
-      </c>
-      <c r="H5">
-        <v>0.9456059999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.1289198617355981</v>
-      </c>
-      <c r="J5">
-        <v>0.09646945066729889</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>0.194878679732</v>
+        <v>0.7956191075850001</v>
       </c>
       <c r="R5">
-        <v>1.169272078392</v>
+        <v>3.18247643034</v>
       </c>
       <c r="S5">
-        <v>0.0002350378402630741</v>
+        <v>0.0004880836497434679</v>
       </c>
       <c r="T5">
-        <v>0.0001759726090751733</v>
+        <v>0.0002582526240897595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H6">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I6">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J6">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>47.579045933984</v>
+        <v>248.1492063255058</v>
       </c>
       <c r="R6">
-        <v>285.4742756039039</v>
+        <v>1488.895237953035</v>
       </c>
       <c r="S6">
-        <v>0.0573837846884023</v>
+        <v>0.1522305952052039</v>
       </c>
       <c r="T6">
-        <v>0.04296318541271325</v>
+        <v>0.1208213511121083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.3019075</v>
+      </c>
+      <c r="H7">
+        <v>2.603815</v>
+      </c>
+      <c r="I7">
+        <v>0.3683937142813216</v>
+      </c>
+      <c r="J7">
+        <v>0.2921984648839798</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.579712666666667</v>
-      </c>
-      <c r="H7">
-        <v>4.739138</v>
-      </c>
-      <c r="I7">
-        <v>0.4307424838011595</v>
-      </c>
-      <c r="J7">
-        <v>0.483480476537291</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>0.585302499552</v>
+        <v>142.4049662548875</v>
       </c>
       <c r="R7">
-        <v>3.511814997312</v>
+        <v>854.429797529325</v>
       </c>
       <c r="S7">
-        <v>0.000705917320378334</v>
+        <v>0.08736031476450588</v>
       </c>
       <c r="T7">
-        <v>0.0005285196312189161</v>
+        <v>0.06933554486336165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J8">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>0.02143248831955555</v>
+        <v>0.423496480387</v>
       </c>
       <c r="R8">
-        <v>0.192892394876</v>
+        <v>2.540978882322</v>
       </c>
       <c r="S8">
-        <v>2.584913738649845E-05</v>
+        <v>0.000259799828624298</v>
       </c>
       <c r="T8">
-        <v>2.902983713060889E-05</v>
+        <v>0.0002061961741052749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J9">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>196.9174495670069</v>
+        <v>0.02143248831955556</v>
       </c>
       <c r="R9">
-        <v>1772.257046103062</v>
+        <v>0.192892394876</v>
       </c>
       <c r="S9">
-        <v>0.2374967447439158</v>
+        <v>1.314805919360771E-05</v>
       </c>
       <c r="T9">
-        <v>0.266720382807312</v>
+        <v>1.565289428973496E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>4.739138</v>
       </c>
       <c r="I10">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J10">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>0.6511217543795556</v>
+        <v>253.3514371372378</v>
       </c>
       <c r="R10">
-        <v>5.860095789416</v>
+        <v>2280.16293423514</v>
       </c>
       <c r="S10">
-        <v>0.0007853001216353426</v>
+        <v>0.1554219763286478</v>
       </c>
       <c r="T10">
-        <v>0.0008819301893466186</v>
+        <v>0.1850313974063022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>4.739138</v>
       </c>
       <c r="I11">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J11">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>158.9694260185102</v>
+        <v>0.965390845428</v>
       </c>
       <c r="R11">
-        <v>1430.724834166592</v>
+        <v>5.792345072568</v>
       </c>
       <c r="S11">
-        <v>0.1917286724778435</v>
+        <v>0.0005922324926253616</v>
       </c>
       <c r="T11">
-        <v>0.2153206140722828</v>
+        <v>0.0004700390866568841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1572373333333333</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H12">
-        <v>0.471712</v>
+        <v>4.739138</v>
       </c>
       <c r="I12">
-        <v>0.04287412574160376</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J12">
-        <v>0.04812342298290504</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>0.05825831884800001</v>
+        <v>301.1000738959424</v>
       </c>
       <c r="R12">
-        <v>0.349549913088</v>
+        <v>2709.900665063482</v>
       </c>
       <c r="S12">
-        <v>7.026376337433194E-05</v>
+        <v>0.1847140442004263</v>
       </c>
       <c r="T12">
-        <v>5.260641329320594E-05</v>
+        <v>0.2199038934281946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1572373333333333</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H13">
-        <v>0.471712</v>
+        <v>4.739138</v>
       </c>
       <c r="I13">
-        <v>0.04287412574160376</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J13">
-        <v>0.04812342298290504</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.002133291313777778</v>
+        <v>172.79179126711</v>
       </c>
       <c r="R13">
-        <v>0.019199621824</v>
+        <v>1555.12612140399</v>
       </c>
       <c r="S13">
-        <v>2.572904248591191E-06</v>
+        <v>0.1060015368199945</v>
       </c>
       <c r="T13">
-        <v>2.889496472260099E-06</v>
+        <v>0.1261958762095855</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06722566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.201677</v>
+      </c>
+      <c r="I14">
+        <v>0.01902248280954781</v>
+      </c>
+      <c r="J14">
+        <v>0.02263206479815439</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.1572373333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.471712</v>
-      </c>
-      <c r="I14">
-        <v>0.04287412574160376</v>
-      </c>
-      <c r="J14">
-        <v>0.04812342298290504</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>19.60025725567645</v>
+        <v>0.0180221592355</v>
       </c>
       <c r="R14">
-        <v>176.402315301088</v>
+        <v>0.108132955413</v>
       </c>
       <c r="S14">
-        <v>0.02363933366292394</v>
+        <v>1.105594520300159E-05</v>
       </c>
       <c r="T14">
-        <v>0.02654812018869313</v>
+        <v>8.774807951367852E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H15">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I15">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J15">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>0.06480966475377778</v>
+        <v>0.0009120730282222223</v>
       </c>
       <c r="R15">
-        <v>0.583286982784</v>
+        <v>0.008208657254000001</v>
       </c>
       <c r="S15">
-        <v>7.816516230944336E-05</v>
+        <v>5.595239332530984E-07</v>
       </c>
       <c r="T15">
-        <v>8.778327482277837E-05</v>
+        <v>6.661187670987587E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H16">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I16">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J16">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>15.82308552442311</v>
+        <v>10.78152984520111</v>
       </c>
       <c r="R16">
-        <v>142.407769719808</v>
+        <v>97.03376860681</v>
       </c>
       <c r="S16">
-        <v>0.01908379024874746</v>
+        <v>0.006614080012025967</v>
       </c>
       <c r="T16">
-        <v>0.02143202360962367</v>
+        <v>0.007874127559634434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.7273215000000001</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H17">
-        <v>1.454643</v>
+        <v>0.201677</v>
       </c>
       <c r="I17">
-        <v>0.1983197805794968</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J17">
-        <v>0.1484007198844251</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>0.269481343608</v>
+        <v>0.041082814962</v>
       </c>
       <c r="R17">
-        <v>1.077925374432</v>
+        <v>0.246496889772</v>
       </c>
       <c r="S17">
-        <v>0.0003250140707024467</v>
+        <v>2.520282642438457E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001622251518979143</v>
+        <v>2.000280913526899E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.7273215000000001</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H18">
-        <v>1.454643</v>
+        <v>0.201677</v>
       </c>
       <c r="I18">
-        <v>0.1983197805794968</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J18">
-        <v>0.1484007198844251</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.009867813231</v>
+        <v>12.81350313139478</v>
       </c>
       <c r="R18">
-        <v>0.059206879386</v>
+        <v>115.321528182553</v>
       </c>
       <c r="S18">
-        <v>1.190129937827563E-05</v>
+        <v>0.007860622394243297</v>
       </c>
       <c r="T18">
-        <v>8.910491606950528E-06</v>
+        <v>0.00935814857362626</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.7273215000000001</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H19">
-        <v>1.454643</v>
+        <v>0.201677</v>
       </c>
       <c r="I19">
-        <v>0.1983197805794968</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J19">
-        <v>0.1484007198844251</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>90.66350977450952</v>
+        <v>7.353263417815</v>
       </c>
       <c r="R19">
-        <v>543.9810586470571</v>
+        <v>66.179370760335</v>
       </c>
       <c r="S19">
-        <v>0.1093467769659347</v>
+        <v>0.004510962107717907</v>
       </c>
       <c r="T19">
-        <v>0.08186782866588328</v>
+        <v>0.00537034492903996</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H20">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I20">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J20">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>0.299785436346</v>
+        <v>0.104287015176</v>
       </c>
       <c r="R20">
-        <v>1.798712618076</v>
+        <v>0.417148060704</v>
       </c>
       <c r="S20">
-        <v>0.0003615630072924654</v>
+        <v>6.397632548375735E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002707018821612144</v>
+        <v>3.385086540900257E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H21">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I21">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J21">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>100.6318613333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N21">
-        <v>301.895584</v>
+        <v>0.040702</v>
       </c>
       <c r="O21">
-        <v>0.4451120557830785</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P21">
-        <v>0.4453553442621278</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q21">
-        <v>73.19171633275201</v>
+        <v>0.005277801205333334</v>
       </c>
       <c r="R21">
-        <v>439.150297996512</v>
+        <v>0.031666807232</v>
       </c>
       <c r="S21">
-        <v>0.08827452523618887</v>
+        <v>3.237740836489852E-06</v>
       </c>
       <c r="T21">
-        <v>0.06609105369287573</v>
+        <v>2.569708289508015E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.389008</v>
+      </c>
+      <c r="H22">
+        <v>0.778016</v>
+      </c>
+      <c r="I22">
+        <v>0.1100754869337095</v>
+      </c>
+      <c r="J22">
+        <v>0.08730846118298513</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.4836246666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.450874</v>
-      </c>
-      <c r="I22">
-        <v>0.1318706208687157</v>
-      </c>
-      <c r="J22">
-        <v>0.1480162115801577</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370512</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N22">
-        <v>0.741024</v>
+        <v>481.13453</v>
       </c>
       <c r="O22">
-        <v>0.001638838393995521</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P22">
-        <v>0.00109315609805839</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q22">
-        <v>0.179188742496</v>
+        <v>62.38839374874668</v>
       </c>
       <c r="R22">
-        <v>1.075132454976</v>
+        <v>374.33036249248</v>
       </c>
       <c r="S22">
-        <v>0.0002161146365196783</v>
+        <v>0.03827303119321783</v>
       </c>
       <c r="T22">
-        <v>0.0001618048243003503</v>
+        <v>0.03037628102082312</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4836246666666666</v>
+        <v>0.389008</v>
       </c>
       <c r="H23">
-        <v>1.450874</v>
+        <v>0.778016</v>
       </c>
       <c r="I23">
-        <v>0.1318706208687157</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J23">
-        <v>0.1480162115801577</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01356733333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N23">
-        <v>0.040702</v>
+        <v>1.222236</v>
       </c>
       <c r="O23">
-        <v>6.001065220776088E-05</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P23">
-        <v>6.004345271296557E-05</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q23">
-        <v>0.006561497060888888</v>
+        <v>0.237729790944</v>
       </c>
       <c r="R23">
-        <v>0.05905347354799999</v>
+        <v>0.9509191637760002</v>
       </c>
       <c r="S23">
-        <v>7.913641965373991E-06</v>
+        <v>0.0001458386593666654</v>
       </c>
       <c r="T23">
-        <v>8.887404400765507E-06</v>
+        <v>7.716549508464248E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4836246666666666</v>
+        <v>0.389008</v>
       </c>
       <c r="H24">
-        <v>1.450874</v>
+        <v>0.778016</v>
       </c>
       <c r="I24">
-        <v>0.1318706208687157</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J24">
-        <v>0.1480162115801577</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.6539663333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N24">
-        <v>373.961899</v>
+        <v>571.812989</v>
       </c>
       <c r="O24">
-        <v>0.5513659638308389</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P24">
-        <v>0.5516673283636506</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q24">
-        <v>60.28573291663623</v>
+        <v>74.14660907497067</v>
       </c>
       <c r="R24">
-        <v>542.571596249726</v>
+        <v>444.879654449824</v>
       </c>
       <c r="S24">
-        <v>0.07270897197625056</v>
+        <v>0.04548627254976715</v>
       </c>
       <c r="T24">
-        <v>0.08165570799693446</v>
+        <v>0.03610123772496819</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.389008</v>
+      </c>
+      <c r="H25">
+        <v>0.778016</v>
+      </c>
+      <c r="I25">
+        <v>0.1100754869337095</v>
+      </c>
+      <c r="J25">
+        <v>0.08730846118298513</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.4836246666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.450874</v>
-      </c>
-      <c r="I25">
-        <v>0.1318706208687157</v>
-      </c>
-      <c r="J25">
-        <v>0.1480162115801577</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4121773333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N25">
-        <v>1.236532</v>
+        <v>328.145355</v>
       </c>
       <c r="O25">
-        <v>0.001823131339879293</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P25">
-        <v>0.001824127823450168</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q25">
-        <v>0.1993391254408889</v>
+        <v>42.55038941928</v>
       </c>
       <c r="R25">
-        <v>1.794052128968</v>
+        <v>255.30233651568</v>
       </c>
       <c r="S25">
-        <v>0.0002404174617150959</v>
+        <v>0.02610313046503758</v>
       </c>
       <c r="T25">
-        <v>0.0002700004898650527</v>
+        <v>0.02071735636841065</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H26">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I26">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J26">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>100.6318613333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N26">
-        <v>301.895584</v>
+        <v>0.536169</v>
       </c>
       <c r="O26">
-        <v>0.4451120557830785</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P26">
-        <v>0.4453553442621278</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q26">
-        <v>48.66805039337955</v>
+        <v>0.0382947091255</v>
       </c>
       <c r="R26">
-        <v>438.012453540416</v>
+        <v>0.229768254753</v>
       </c>
       <c r="S26">
-        <v>0.05869720315226497</v>
+        <v>2.349242397228585E-05</v>
       </c>
       <c r="T26">
-        <v>0.06591981086465709</v>
+        <v>1.86453084638076E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.428537</v>
+      </c>
+      <c r="I27">
+        <v>0.04042026465960516</v>
+      </c>
+      <c r="J27">
+        <v>0.04809014985549512</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G27">
-        <v>0.2467186666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.740156</v>
-      </c>
-      <c r="I27">
-        <v>0.06727312727342631</v>
-      </c>
-      <c r="J27">
-        <v>0.07550971834792217</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
       <c r="M27">
-        <v>0.370512</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N27">
-        <v>0.741024</v>
+        <v>0.040702</v>
       </c>
       <c r="O27">
-        <v>0.001638838393995521</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P27">
-        <v>0.00109315609805839</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q27">
-        <v>0.091412226624</v>
+        <v>0.001938034774888889</v>
       </c>
       <c r="R27">
-        <v>0.548473359744</v>
+        <v>0.017442312974</v>
       </c>
       <c r="S27">
-        <v>0.0001102497838598383</v>
+        <v>1.188914490916084E-06</v>
       </c>
       <c r="T27">
-        <v>8.254390907470264E-05</v>
+        <v>1.415414440398264E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2467186666666667</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H28">
-        <v>0.740156</v>
+        <v>0.428537</v>
       </c>
       <c r="I28">
-        <v>0.06727312727342631</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J28">
-        <v>0.07550971834792217</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N28">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="O28">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P28">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q28">
-        <v>0.003347314390222222</v>
+        <v>22.90932756473445</v>
       </c>
       <c r="R28">
-        <v>0.030125829512</v>
+        <v>206.18394808261</v>
       </c>
       <c r="S28">
-        <v>4.037104243734019E-06</v>
+        <v>0.01405404684774948</v>
       </c>
       <c r="T28">
-        <v>4.533864202992813E-06</v>
+        <v>0.01673148153742401</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2467186666666667</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H29">
-        <v>0.740156</v>
+        <v>0.428537</v>
       </c>
       <c r="I29">
-        <v>0.06727312727342631</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J29">
-        <v>0.07550971834792217</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N29">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="O29">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P29">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q29">
-        <v>30.75446036847156</v>
+        <v>0.08729555812200002</v>
       </c>
       <c r="R29">
-        <v>276.790143316244</v>
+        <v>0.5237733487320001</v>
       </c>
       <c r="S29">
-        <v>0.03709211265902739</v>
+        <v>5.355267892435177E-05</v>
       </c>
       <c r="T29">
-        <v>0.04165624458648995</v>
+        <v>4.250332868101354E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2467186666666667</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H30">
-        <v>0.740156</v>
+        <v>0.428537</v>
       </c>
       <c r="I30">
-        <v>0.06727312727342631</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J30">
-        <v>0.07550971834792217</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4121773333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N30">
-        <v>1.236532</v>
+        <v>571.812989</v>
       </c>
       <c r="O30">
-        <v>0.001823131339879293</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P30">
-        <v>0.001824127823450168</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q30">
-        <v>0.1016918421102222</v>
+        <v>27.22700254078811</v>
       </c>
       <c r="R30">
-        <v>0.915226578992</v>
+        <v>245.043022867093</v>
       </c>
       <c r="S30">
-        <v>0.0001226477466638719</v>
+        <v>0.01670278484389316</v>
       </c>
       <c r="T30">
-        <v>0.0001377393781793305</v>
+        <v>0.01988483027462763</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2467186666666667</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H31">
-        <v>0.740156</v>
+        <v>0.428537</v>
       </c>
       <c r="I31">
-        <v>0.06727312727342631</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J31">
-        <v>0.07550971834792217</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N31">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="O31">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P31">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q31">
-        <v>24.82775865234489</v>
+        <v>15.624713999515</v>
       </c>
       <c r="R31">
-        <v>223.449827871104</v>
+        <v>140.622425995635</v>
       </c>
       <c r="S31">
-        <v>0.02994407997963147</v>
+        <v>0.009585198950574973</v>
       </c>
       <c r="T31">
-        <v>0.03362865660997518</v>
+        <v>0.01141127399185826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.05331166666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.159935</v>
+      </c>
+      <c r="I32">
+        <v>0.01508531358630399</v>
+      </c>
+      <c r="J32">
+        <v>0.01794780408025121</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2680845</v>
+      </c>
+      <c r="N32">
+        <v>0.536169</v>
+      </c>
+      <c r="O32">
+        <v>0.0005812041106144338</v>
+      </c>
+      <c r="P32">
+        <v>0.0003877157488557307</v>
+      </c>
+      <c r="Q32">
+        <v>0.0142920315025</v>
+      </c>
+      <c r="R32">
+        <v>0.08575218901499999</v>
+      </c>
+      <c r="S32">
+        <v>8.767646266267643E-06</v>
+      </c>
+      <c r="T32">
+        <v>6.958646299290537E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.05331166666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.159935</v>
+      </c>
+      <c r="I33">
+        <v>0.01508531358630399</v>
+      </c>
+      <c r="J33">
+        <v>0.01794780408025121</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.040702</v>
+      </c>
+      <c r="O33">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P33">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.0007232971522222223</v>
+      </c>
+      <c r="R33">
+        <v>0.00650967437</v>
+      </c>
+      <c r="S33">
+        <v>4.437167364887136E-07</v>
+      </c>
+      <c r="T33">
+        <v>5.282491559074162E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.05331166666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.159935</v>
+      </c>
+      <c r="I34">
+        <v>0.01508531358630399</v>
+      </c>
+      <c r="J34">
+        <v>0.01794780408025121</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N34">
+        <v>481.13453</v>
+      </c>
+      <c r="O34">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P34">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q34">
+        <v>8.550027895061111</v>
+      </c>
+      <c r="R34">
+        <v>76.95025105555</v>
+      </c>
+      <c r="S34">
+        <v>0.00524513398515137</v>
+      </c>
+      <c r="T34">
+        <v>0.006244383798103568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.05331166666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.159935</v>
+      </c>
+      <c r="I35">
+        <v>0.01508531358630399</v>
+      </c>
+      <c r="J35">
+        <v>0.01794780408025121</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.222236</v>
+      </c>
+      <c r="O35">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P35">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q35">
+        <v>0.03257971911</v>
+      </c>
+      <c r="R35">
+        <v>0.19547831466</v>
+      </c>
+      <c r="S35">
+        <v>1.998648355630016E-05</v>
+      </c>
+      <c r="T35">
+        <v>1.586273734262829E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.05331166666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.159935</v>
+      </c>
+      <c r="I36">
+        <v>0.01508531358630399</v>
+      </c>
+      <c r="J36">
+        <v>0.01794780408025121</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N36">
+        <v>571.812989</v>
+      </c>
+      <c r="O36">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P36">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q36">
+        <v>10.16143448841278</v>
+      </c>
+      <c r="R36">
+        <v>91.45291039571499</v>
+      </c>
+      <c r="S36">
+        <v>0.006233673857818698</v>
+      </c>
+      <c r="T36">
+        <v>0.007421250277041587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.05331166666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.159935</v>
+      </c>
+      <c r="I37">
+        <v>0.01508531358630399</v>
+      </c>
+      <c r="J37">
+        <v>0.01794780408025121</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>109.381785</v>
+      </c>
+      <c r="N37">
+        <v>328.145355</v>
+      </c>
+      <c r="O37">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P37">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q37">
+        <v>5.831325261325</v>
+      </c>
+      <c r="R37">
+        <v>52.48192735192499</v>
+      </c>
+      <c r="S37">
+        <v>0.00357730789677486</v>
+      </c>
+      <c r="T37">
+        <v>0.004258820372308226</v>
       </c>
     </row>
   </sheetData>
